--- a/experiments/FinalResults/#4with_nhop/with_nhop.xlsx
+++ b/experiments/FinalResults/#4with_nhop/with_nhop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32472\Desktop\MaastrichtUni\Year3\ThesisSep\CodeDataFinal\nl2sparql-thesis\experiments\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32472\Desktop\MaastrichtUni\Year3\ThesisSep\CodeDataFinal\nl2sparql-thesis\experiments\FinalResults\#4with_nhop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF7607C-0DB5-4B95-A259-D06B5FD08728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED731A7-C25A-46B7-8766-5019B1EF39C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1795,8 +1795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
